--- a/input/customers.xlsx
+++ b/input/customers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Courses\Data Science\contax-sa\invoice-app\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4DD13F-D0B4-4296-95DD-151D24854F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DFD1F4-5BA0-4C54-A0E1-778788023418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,17 +18,28 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">القائمة!$B$1:$C$71</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="100">
   <si>
     <t xml:space="preserve">شركة نخلة البراري </t>
   </si>
@@ -599,7 +610,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="F1:G72" totalsRowCount="1" headerRowDxfId="6" dataDxfId="5" totalsRowDxfId="4">
   <tableColumns count="2">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="purchase_amount" dataDxfId="3" totalsRowDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="purchase_amount" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="1" dataCellStyle="Comma">
+      <totalsRowFormula>SUBTOTAL(109,F51:F71)</totalsRowFormula>
+    </tableColumn>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="purchase_date" dataDxfId="2" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -905,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51:F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2050,7 +2063,10 @@
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F72" s="7"/>
+      <c r="F72" s="7">
+        <f>SUBTOTAL(109,F51:F71)</f>
+        <v>1696899.94</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
